--- a/Chandrakala_Required_3.xlsx
+++ b/Chandrakala_Required_3.xlsx
@@ -16,7 +16,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="articles" sheetId="4" r:id="rId4"/>
-    <sheet name="Questions" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Questions" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="273">
   <si>
     <t>Server sizing</t>
   </si>
@@ -1429,6 +1430,144 @@
   </si>
   <si>
     <t>what is prcoess and thread</t>
+  </si>
+  <si>
+    <t>https://career.guru99.com/top-40-multithreading-interview-questions-and-answers/</t>
+  </si>
+  <si>
+    <t>https://career.guru99.com/top-50-weblogic-interview-questions/</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/stop-hoping-for-the-best-and-load-performing-tests</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/disappointing-story-on-java-memory-optimization</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/5-logstash-alternatives-2</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/performance-patterns-in-microservices-based-integr</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/java-performance-mythbusters</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/gc-explained-collectors-overview</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/understanding-java-buffer-pool</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/top-10-web-performance-killers</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/java-performance-optimization-tips-how-to-avoid-co</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/a-step-by-step-guide-to-tomcat-performance-monitor</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/java-performance-tuning</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/precise-workload-analysis-in-performance-testing-a</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/performance-engineering-and-agile-methods</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/reinventing-performance-testing</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/scaling-io-bound-workloads-for-mysql-in-the-cloud</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/the-keys-to-performance-tuning-and-testing</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/performance-engineering-in-the-age-of-agile-and-de</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/how-to-read-a-thread-dump?fromrel=true</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/how-to-avoid-deadlock-in-java-threads-1?fromrel=true</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/look-for-exceptions-errors-in-thread-dumps?fromrel=true</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/how-much-memory-does-a-java-thread-take?fromrel=true</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/java-what-limit-number-threads?fromrel=true</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/support/pages/ibm-thread-and-monitor-dump-analyzer-java-tmda</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Dynatrace</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/dynatrace-identifies-root-cause-of-problems-for-zo</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/all-about-visualvm</t>
+  </si>
+  <si>
+    <t>jbisual VM</t>
+  </si>
+  <si>
+    <t>https://stackify.com/java-performance-tools-8-types-tools-need-know/</t>
+  </si>
+  <si>
+    <t>https://blogs.sap.com/2015/09/18/step-by-step-to-use-visualvm-to-do-performance-measurement/</t>
+  </si>
+  <si>
+    <t>http://www.science.smith.edu/dftwiki/index.php/Tutorial:_Profiling_Java_Programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a sample application </t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/monitoring-ibm-jvm-visualvm</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/best-kept-secret-jdk-visualvm</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/profiling-with-jvisualvm</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/visualvm-13</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/visual-vm-free-and-open-source</t>
+  </si>
+  <si>
+    <t>http://docs.oracle.com/javase/6/docs/technotes/guides/visualvm/jmx_connections.html</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/visualvm-monitoring-remote-jvm</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/7/docs/technotes/guides/visualvm/intro.html</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/monitoring-ibm-jvm-VisualVM</t>
   </si>
 </sst>
 </file>
@@ -1492,12 +1631,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1513,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1527,6 +1678,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2496,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,6 +2661,16 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2874,10 +3038,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,81 +3051,85 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -2973,24 +3142,288 @@
       <c r="D14" t="s">
         <v>219</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId2"/>
+    <hyperlink ref="D37" r:id="rId3"/>
+    <hyperlink ref="D52" r:id="rId4"/>
+    <hyperlink ref="D57" r:id="rId5"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
